--- a/biology/Zoologie/Brève_à_ventre_rouge/Brève_à_ventre_rouge.xlsx
+++ b/biology/Zoologie/Brève_à_ventre_rouge/Brève_à_ventre_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ventre_rouge</t>
+          <t>Brève_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythropitta erythrogaster
 La Brève à ventre rouge (Erythropitta erythrogaster) est une espèce de passereaux appartenant à la famille des Pittidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ventre_rouge</t>
+          <t>Brève_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les Philippines et les îles Talaud.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ventre_rouge</t>
+          <t>Brève_à_ventre_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Brève à ventre rouge se reproduit généralement de décembre à février, mais cette période dépend de la saison des pluies. La ponte ne débute pas tant que la forêt n'a pas été abondamment détrempée par les pluies de la mousson. La Brève ne fait probablement qu'une nichée par an. Les œufs mesurent approximativement 30 mm x 23 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brève à ventre rouge se reproduit généralement de décembre à février, mais cette période dépend de la saison des pluies. La ponte ne débute pas tant que la forêt n'a pas été abondamment détrempée par les pluies de la mousson. La Brève ne fait probablement qu'une nichée par an. Les œufs mesurent approximativement 30 mm x 23 mm.
 </t>
         </is>
       </c>
